--- a/worksheetV2.xlsx
+++ b/worksheetV2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boda Li\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boda Li\Desktop\A6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E253E015-250D-40D6-8C8B-294B27925128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0654ED-D544-493F-9436-C8FF6E59BCDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -174,9 +176,6 @@
     <t>More hiddden layers help the CNN to learn things better. With multiple layers, the CNN will be more stable as well.  Maxpooling is used more oftern in CNN especially for image recognition CNN like U-net.</t>
   </si>
   <si>
-    <t>Without convolution, our neural network with a single layer will not create any non-linear behaviour of the input. So the loss function decreasing does not help to find a better classification.</t>
-  </si>
-  <si>
     <t>Convolution run much better.</t>
   </si>
   <si>
@@ -205,6 +204,9 @@
   </si>
   <si>
     <t>The overall performance increased because the better classify all classes, adding more hidden layers are definitely helpful but need longer training time.</t>
+  </si>
+  <si>
+    <t>Without convolution, our neural network with a single layer will not combine information from the neighbour hood. So the shape and feature information across different pixel won't help the predictions.</t>
   </si>
 </sst>
 </file>
@@ -581,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C61" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1000,7 +1002,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1393,7 +1395,7 @@
         <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -1412,7 +1414,7 @@
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -1423,7 +1425,7 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -1661,7 +1663,10 @@
         <f t="shared" si="7"/>
         <v>797</v>
       </c>
-      <c r="J57" s="2"/>
+      <c r="J57" s="2">
+        <f>SUM(J53:J56)</f>
+        <v>2487</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -1852,7 +1857,7 @@
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -1863,7 +1868,7 @@
         <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -1874,7 +1879,7 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -1934,7 +1939,7 @@
         <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -2311,7 +2316,7 @@
         <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -2322,7 +2327,7 @@
         <v>28</v>
       </c>
       <c r="C91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -2333,7 +2338,7 @@
         <v>23</v>
       </c>
       <c r="C92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
